--- a/conditionFiles/practiceMixedTrials.xlsx
+++ b/conditionFiles/practiceMixedTrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44797\Documents\GitHub\OSARI-1\conditionFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonhe/Documents/Documents - Jason's iCloud/Work/GitHub/teamOSTAP/OSARI/conditionFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6DD180-CBC3-43A0-81A2-03E94074798D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5131FB-FE0B-A549-A7F9-19D1DCD40F34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="practiceMixedTrials" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9A51ABA5-D320-4F99-9DD0-6C0F74C9CEBD}</author>
     <author>tc={FACE125B-4C94-4B69-9B11-DB6B23A934F7}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -36,7 +36,7 @@
 The order of trials can be either sequential or random and is set at experiment startup.</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,12 +211,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -945,19 +939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="2"/>
+    <col min="1" max="2" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -973,15 +967,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -989,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -997,23 +991,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1021,15 +1015,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1037,15 +1031,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1053,15 +1047,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -1069,15 +1063,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1085,15 +1079,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -1101,15 +1095,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -1117,9 +1111,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
